--- a/scripts/data/prop_config_Table.xlsx
+++ b/scripts/data/prop_config_Table.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\huanhuoserver\scripts\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\kbengine\huanhuoserver\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="10995"/>
   </bookViews>
   <sheets>
     <sheet name="@道具配置表#prop_config_Table" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>道具id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -42,13 +42,41 @@
   </si>
   <si>
     <t>gongFa[][int]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name[.][str]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具名称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰霜大剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵木弓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>岩土盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赤金盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>宗门令牌</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -376,84 +404,116 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="15.75" customWidth="1"/>
-    <col min="2" max="2" width="14.625" customWidth="1"/>
-    <col min="3" max="3" width="16" customWidth="1"/>
+    <col min="1" max="2" width="15.75" customWidth="1"/>
+    <col min="3" max="3" width="14.625" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1001</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>1001</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1002</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1002</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1003</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>1003</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1004</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
         <v>2</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>1004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>1005</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/data/prop_config_Table.xlsx
+++ b/scripts/data/prop_config_Table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\kbengine\huanhuoserver\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D8990063-98DC-4EE7-A573-FE2390D7B390}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="10995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="@道具配置表#prop_config_Table" sheetId="1" r:id="rId1"/>
@@ -65,18 +66,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>赤金盾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>宗门令牌</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>秘术法杖</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -404,11 +405,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -493,7 +494,7 @@
         <v>1004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -507,7 +508,7 @@
         <v>1005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>1</v>

--- a/scripts/data/prop_config_Table.xlsx
+++ b/scripts/data/prop_config_Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\kbengine\huanhuoserver\scripts\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\huanhuoserver\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{D8990063-98DC-4EE7-A573-FE2390D7B390}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C27CD80A-B12F-4D39-8C4D-39E30FF5CBEC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>道具id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -42,10 +42,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>gongFa[][int]</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>name[.][str]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -71,6 +67,18 @@
   </si>
   <si>
     <t>秘术法杖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>gongFa[.][int]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sellPrice[.][int]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出价格</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -406,10 +414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -417,28 +425,32 @@
     <col min="1" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="14.625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
@@ -446,13 +458,16 @@
       <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1001</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -460,13 +475,16 @@
       <c r="D3">
         <v>1001</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1002</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>2</v>
@@ -474,13 +492,16 @@
       <c r="D4">
         <v>1002</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1003</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -488,13 +509,16 @@
       <c r="D5">
         <v>1003</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1004</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -502,23 +526,30 @@
       <c r="D6">
         <v>1004</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="E6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1005</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7">
         <v>0</v>
+      </c>
+      <c r="E7">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/scripts/data/prop_config_Table.xlsx
+++ b/scripts/data/prop_config_Table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\huanhuoserver\scripts\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\kbengine\huanhuoserver\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C27CD80A-B12F-4D39-8C4D-39E30FF5CBEC}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1C73A2ED-FD5F-4DAD-8528-6621E7609353}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>道具id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -79,6 +79,22 @@
   </si>
   <si>
     <t>卖出价格</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>木材</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒冰石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁精</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁岩石</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -414,10 +430,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -547,6 +563,74 @@
         <v>8</v>
       </c>
     </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>1006</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>1007</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>1008</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>1009</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>

--- a/scripts/data/prop_config_Table.xlsx
+++ b/scripts/data/prop_config_Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\kbengine\huanhuoserver\scripts\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\huanhuoserver\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1C73A2ED-FD5F-4DAD-8528-6621E7609353}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{319B6AA5-3E10-485F-892A-A67F5A094CDB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>道具id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -95,6 +95,14 @@
   </si>
   <si>
     <t>铁岩石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>description[.][str]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具描述</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -430,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -442,9 +450,10 @@
     <col min="3" max="3" width="14.625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
+    <col min="6" max="6" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -460,8 +469,11 @@
       <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -477,8 +489,11 @@
       <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -494,8 +509,11 @@
       <c r="E3">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -511,8 +529,11 @@
       <c r="E4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -528,8 +549,11 @@
       <c r="E5">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -545,8 +569,11 @@
       <c r="E6">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -562,8 +589,11 @@
       <c r="E7">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F7" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -579,8 +609,11 @@
       <c r="E8">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F8" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -596,8 +629,11 @@
       <c r="E9">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -613,8 +649,11 @@
       <c r="E10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -629,6 +668,9 @@
       </c>
       <c r="E11">
         <v>8</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/data/prop_config_Table.xlsx
+++ b/scripts/data/prop_config_Table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Temp\huanhuoserver\scripts\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\kbengine\huanhuoserver\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{319B6AA5-3E10-485F-892A-A67F5A094CDB}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{274F3A0C-B3C2-4541-92BD-C416E88BB90C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -441,7 +441,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/scripts/data/prop_config_Table.xlsx
+++ b/scripts/data/prop_config_Table.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\kbengine\huanhuoserver\scripts\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\kbengine-1.0.0\huanhuoserver\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{274F3A0C-B3C2-4541-92BD-C416E88BB90C}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BB36B0D8-33BA-42B5-8EFF-7AEC1712E090}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>道具id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>道具描述</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>落石阵阵盘</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>zhenFa[.][int]</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阵法id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -438,22 +450,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="15.75" customWidth="1"/>
     <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="22.5" customWidth="1"/>
+    <col min="4" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -467,13 +479,16 @@
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -487,13 +502,16 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -507,13 +525,16 @@
         <v>1001</v>
       </c>
       <c r="E3">
-        <v>8</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -527,13 +548,16 @@
         <v>1002</v>
       </c>
       <c r="E4">
-        <v>8</v>
-      </c>
-      <c r="F4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -547,13 +571,16 @@
         <v>1003</v>
       </c>
       <c r="E5">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -567,13 +594,16 @@
         <v>1004</v>
       </c>
       <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="F6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>1005</v>
       </c>
@@ -587,13 +617,16 @@
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8</v>
-      </c>
-      <c r="F7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>1006</v>
       </c>
@@ -607,13 +640,16 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>8</v>
-      </c>
-      <c r="F8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>1007</v>
       </c>
@@ -627,13 +663,16 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>8</v>
-      </c>
-      <c r="F9" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>1008</v>
       </c>
@@ -647,13 +686,16 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8</v>
-      </c>
-      <c r="F10" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>1009</v>
       </c>
@@ -667,10 +709,36 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8</v>
-      </c>
-      <c r="F11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>8</v>
+      </c>
+      <c r="G11" s="1" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>1010</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>1001</v>
+      </c>
+      <c r="F12">
+        <v>8</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/data/prop_config_Table.xlsx
+++ b/scripts/data/prop_config_Table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\kbengine-1.0.0\huanhuoserver\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{BB36B0D8-33BA-42B5-8EFF-7AEC1712E090}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{93FD93A0-EAC3-411F-878C-83BC3791FEDE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,15 +106,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>落石阵阵盘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>zhenFa[.][int]</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>阵法id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>落石阵阵旗</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +453,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -479,7 +479,7 @@
         <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -502,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>14</v>
@@ -723,7 +723,7 @@
         <v>1010</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -738,7 +738,7 @@
         <v>8</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/data/prop_config_Table.xlsx
+++ b/scripts/data/prop_config_Table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyProjects\kbengine-1.0.0\huanhuoserver\scripts\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{93FD93A0-EAC3-411F-878C-83BC3791FEDE}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{51DFAB84-A0A9-4B3A-915A-A09DEAD87BD3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22935" windowHeight="10995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -453,7 +453,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
